--- a/StructureDefinition-ext-R5-MedicationAdministration.dosage.xlsx
+++ b/StructureDefinition-ext-R5-MedicationAdministration.dosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="185">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,15 +450,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-approach-site-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:route</t>
   </si>
   <si>
@@ -490,12 +481,6 @@
     <t>Extension.extension:route.value[x]</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-route-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:method</t>
   </si>
   <si>
@@ -530,12 +515,6 @@
     <t>Extension.extension:method.value[x]</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-administration-method-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:dose</t>
   </si>
   <si>
@@ -570,7 +549,7 @@
     <t>Extension.extension:dose.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -611,7 +590,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity {SimpleQuantity|4.0.1}</t>
+Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>base64Binary
@@ -971,8 +950,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2415,13 +2394,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2459,13 +2438,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2490,14 +2469,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2566,7 +2545,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2669,7 +2648,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2774,7 +2753,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2817,7 +2796,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2879,7 +2858,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2908,10 +2887,10 @@
         <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2938,13 +2917,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2982,13 +2961,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3013,16 +2992,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3091,7 +3070,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3194,7 +3173,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3299,7 +3278,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3342,7 +3321,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3404,7 +3383,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3433,13 +3412,13 @@
         <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3465,13 +3444,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3509,13 +3488,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3540,16 +3519,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3618,7 +3597,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3721,7 +3700,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3826,7 +3805,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3869,7 +3848,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3931,7 +3910,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3957,16 +3936,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4036,13 +4015,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4067,16 +4046,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4145,7 +4124,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4248,7 +4227,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4353,7 +4332,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4396,7 +4375,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4458,7 +4437,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4484,16 +4463,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4694,13 +4673,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
